--- a/clients.xlsx
+++ b/clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alysson.pereira\AppData\Roaming\Microsoft\Windows\Templates\enviar-email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D261C5-D08F-4735-9BCF-E76BA7BCEB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235A5EB-CF8E-4F44-8EF8-C88A16DB756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{237005F1-1943-4CFE-870F-DB4A15B543A7}"/>
   </bookViews>
@@ -44,22 +44,22 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>Walter Mitty</t>
+  </si>
+  <si>
+    <t>janedoe@testmail.com</t>
+  </si>
+  <si>
+    <t>waltermitty@testmail.com</t>
+  </si>
+  <si>
     <t>John Doe</t>
   </si>
   <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
     <t>johndoe@testmail.com</t>
-  </si>
-  <si>
-    <t>janedoe@testmail.com</t>
-  </si>
-  <si>
-    <t>waltermitty@testmail.com</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,26 +473,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
